--- a/api/mission.xlsx
+++ b/api/mission.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>修改学生信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>发布作业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>功能完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -71,6 +67,126 @@
   </si>
   <si>
     <t>论坛跟贴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生上传作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生退课</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生选课（分情况）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师下载作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师上传作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生查看某个发布课程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师查看课程内容（包括发布）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师查看自己的所有课程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群发邮件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:4080/api/teacher/modifyInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:4080/api/student/modifyInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:4080/api/course/pass?id=${"cid"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:4080/api/teacher/course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:4080/api/teacher/course/${"cid"}/publish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:4080/api/teacher/course/${"cid"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:4080/api/login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:4080/api/teacher/course/${"cid"}/doc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生查看可选的课程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:4080/api/student/course</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:4080/api/student/course/${"cid"}/publish/${"pcid"}/select</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:4080/api/teacher/course/${"cid"}/publish/${"pcid"}/homework</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师发布作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师查看作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:4080/api/teacher/course/${"cid"}/publish/${"pcid"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:4080/api/student/course/${"cid"}/forum/${"fid"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:4080/api/student/course/${"cid"}/forum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:4080/api/student/course/${"cid"}/publish/${"pcid"}/homework/${"hwid"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +194,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +216,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -140,18 +264,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="检查单元格" xfId="1" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -451,100 +578,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="5" max="5" width="59.33203125" customWidth="1"/>
     <col min="6" max="6" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="E13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="E14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="E15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="E16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="E17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="E18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="E19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E12" r:id="rId4"/>
+    <hyperlink ref="E4" r:id="rId5"/>
+    <hyperlink ref="E6" r:id="rId6"/>
+    <hyperlink ref="E13" r:id="rId7"/>
+    <hyperlink ref="E8" r:id="rId8"/>
+    <hyperlink ref="E7" r:id="rId9"/>
+    <hyperlink ref="E9" r:id="rId10"/>
+    <hyperlink ref="E14" r:id="rId11"/>
+    <hyperlink ref="E19" r:id="rId12"/>
+    <hyperlink ref="E15" r:id="rId13"/>
+    <hyperlink ref="E11" r:id="rId14"/>
+    <hyperlink ref="E18" r:id="rId15"/>
+    <hyperlink ref="E17" r:id="rId16"/>
+    <hyperlink ref="E16" r:id="rId17"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 

--- a/api/mission.xlsx
+++ b/api/mission.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>修改学生信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>老师上传作业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>学生查看某个发布课程</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -187,6 +183,58 @@
   </si>
   <si>
     <t>http://localhost:4080/api/student/course/${"cid"}/publish/${"pcid"}/homework/${"hwid"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师上传作业成绩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端集成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证邮箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生注册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师注册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师登录</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -578,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -605,7 +653,7 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -615,10 +663,10 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -628,10 +676,10 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -641,10 +689,10 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -654,10 +702,10 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -667,10 +715,10 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -680,10 +728,10 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -693,10 +741,10 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -706,76 +754,76 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -785,10 +833,10 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -798,10 +846,10 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -811,10 +859,10 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -824,35 +872,89 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="E19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/api/mission.xlsx
+++ b/api/mission.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
   <si>
     <t>修改学生信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -190,10 +190,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>前端</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -206,35 +202,161 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>url</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>css</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢迎页面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证邮箱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>学生注册</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>学生登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师注册</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师登录</t>
+    <t>学生验证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改学生信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名学号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注销</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可再次注册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生选课</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动分配班级，开课后任然可以选课</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退课</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开课后仍可退课</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看论坛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>论坛发言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看学生统计资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选课/退课/成绩等：按照学期、课程、教师等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师注册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师验证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改教师信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建课程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">可上传课件、上传/下载作业、公布成绩、论坛等 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需MyCourses主管审批</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布课程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间、班次、限选人数等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次发布后，作业、学生、成绩与发布学期相关的，学生只
+能看到本学期内容，教师可查看以前学期的内容；课件、论
+坛等与学期无关的，学生/教师均可查看</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传课件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群发右键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量下载作业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按学号保存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传作业/考试成绩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传csv表，选择公开，或
+学生只能查看自己的成绩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看教师统计资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开课/选课/作业等   按照学期、课程、学生类型等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批教师开课信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批教师发布课信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看主管统计信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师统计
+• 学生统计
+• MyCourses使用情况
+• 采用图表显示（可选）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -319,10 +441,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -626,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -907,54 +1032,215 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>43</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>44</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>45</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="28" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="E27" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>47</v>
       </c>
-      <c r="F27" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="31" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="E31" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="E33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="E44" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/api/mission.xlsx
+++ b/api/mission.xlsx
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1073,26 +1073,35 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>51</v>
       </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
       <c r="E31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>53</v>
       </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
       <c r="E32" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>55</v>
       </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
       <c r="E33" t="s">
         <v>56</v>
       </c>
@@ -1121,12 +1130,15 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>63</v>
@@ -1151,10 +1163,13 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>66</v>
       </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
       <c r="E42" t="s">
         <v>67</v>
       </c>
@@ -1162,10 +1177,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>69</v>
       </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
       <c r="E43" t="s">
         <v>70</v>
       </c>
@@ -1173,52 +1191,75 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E44" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>74</v>
       </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
       <c r="E48" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>76</v>
       </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
       <c r="E49" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>81</v>
       </c>
-    </row>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>61</v>
